--- a/Exporter_of_Selected_Products_code.xlsx
+++ b/Exporter_of_Selected_Products_code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viwong\OneDrive - HKTDC\vicwork\UN_comtrade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\World_commodity_trade_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="113_{F2F0C352-8862-489B-9191-3CD400E7F31D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{06CD9D8B-465E-4538-BA7D-FD45B52B2A65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1739A179-FA86-4188-931A-3DED7FB778B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="948" windowWidth="18720" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1095" windowWidth="22785" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
-  <si>
-    <t>Spectacles &amp; Frames</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Clothing</t>
   </si>
@@ -63,18 +60,12 @@
     <t>Toys &amp; Games</t>
   </si>
   <si>
-    <t>Travel Goods &amp; Handbags</t>
-  </si>
-  <si>
     <t>Sound Recording Apparatus</t>
   </si>
   <si>
     <t>Video Recording Apparatus</t>
   </si>
   <si>
-    <t>88421, 88423</t>
-  </si>
-  <si>
     <t>SITC</t>
   </si>
   <si>
@@ -129,25 +120,7 @@
     <t>Video Cameras</t>
   </si>
   <si>
-    <t>Textiles</t>
-  </si>
-  <si>
     <t>Computer Parts &amp; Accessories</t>
-  </si>
-  <si>
-    <t>Fine Jewellery</t>
-  </si>
-  <si>
-    <t>Footwear</t>
-  </si>
-  <si>
-    <t>Wine</t>
-  </si>
-  <si>
-    <t>2204, 2205</t>
-  </si>
-  <si>
-    <t>Spirits</t>
   </si>
   <si>
     <t>H4</t>
@@ -494,498 +467,361 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A803CE08-9C2A-4ABE-A082-F586B171A576}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1">
         <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>84831</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>8857</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>77583</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>76411</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1">
         <v>852190</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>8473</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1">
         <v>8471</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>850110</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>8542</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1">
-        <v>8973</v>
+        <v>8972</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="1">
-        <v>8972</v>
+        <v>7102</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7102</v>
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1">
-        <v>831</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1">
-        <v>851</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2208</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1">
-        <v>65</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Exporter_of_Selected_Products_code.xlsx
+++ b/Exporter_of_Selected_Products_code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\World_commodity_trade_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1739A179-FA86-4188-931A-3DED7FB778B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95766130-1D06-4F87-9DCE-45EAFEFF412C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1095" windowWidth="22785" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="1320" windowWidth="22785" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -176,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -186,6 +186,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,16 +473,16 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -501,7 +504,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -521,7 +524,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -541,7 +544,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -561,7 +564,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -581,7 +584,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -601,7 +604,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -621,7 +624,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -641,7 +644,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -661,7 +664,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -681,7 +684,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -701,7 +704,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -721,7 +724,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -741,7 +744,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -761,7 +764,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -781,7 +784,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -801,7 +804,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
